--- a/office/relatorio_servicos.xlsx
+++ b/office/relatorio_servicos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Data</t>
   </si>
@@ -36,39 +36,6 @@
   </si>
   <si>
     <t>Orçamento</t>
-  </si>
-  <si>
-    <t>2023-11-12</t>
-  </si>
-  <si>
-    <t>CARLESSO ANTONIO GIUSEPPE</t>
-  </si>
-  <si>
-    <t>0,00</t>
-  </si>
-  <si>
-    <t>VANESSA DE PAULA MASCARENHAS SANTOS</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;0&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>2023-11-14</t>
-  </si>
-  <si>
-    <t>FRANCESCO CARONE</t>
-  </si>
-  <si>
-    <t>TROTTA GIUSEPPE</t>
-  </si>
-  <si>
-    <t>2023-11-15</t>
-  </si>
-  <si>
-    <t>STRABELLO''''</t>
-  </si>
-  <si>
-    <t>Bruno</t>
   </si>
 </sst>
 </file>
@@ -404,7 +371,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,98 +400,6 @@
       </c>
       <c r="G1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>533</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>534</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>535</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5">
-        <v>536</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
